--- a/陈绍基/编码进度表——陈绍基组.xlsx
+++ b/陈绍基/编码进度表——陈绍基组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
   <si>
     <t>整体模块</t>
   </si>
@@ -179,6 +179,26 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1154,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1198,17 +1218,17 @@
       <c r="C3" s="8">
         <v>43640</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
+      <c r="D3" s="8">
+        <v>43642</v>
       </c>
       <c r="E3" s="8">
-        <v>43640</v>
+        <v>43642</v>
       </c>
       <c r="F3" s="9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>36</v>
@@ -1262,10 +1282,14 @@
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43643</v>
+      </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -1794,7 +1818,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1882,7 +1906,9 @@
       <c r="C4" s="8">
         <v>43640</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="8">
         <v>43641</v>
       </c>
@@ -2016,7 +2042,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2170,13 +2196,17 @@
       <c r="C7" s="8">
         <v>43642</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43643</v>
+      </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>34</v>
@@ -2260,7 +2290,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2324,15 +2354,17 @@
       <c r="C3" s="8">
         <v>43640</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8">
+        <v>43642</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43643</v>
+      </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -2386,10 +2418,14 @@
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43643</v>
+      </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>

--- a/陈绍基/编码进度表——陈绍基组.xlsx
+++ b/陈绍基/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
   <si>
     <t>整体模块</t>
   </si>
@@ -138,14 +138,50 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>登录拦截</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工等级不同，可操作的不同</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注释</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息查询</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询员工工资</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息显示已完成，第二部操作</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建立数据库，并且把登录完成   </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>2019/6/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>登录拦截</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -154,51 +190,19 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>员工等级不同，可操作的不同</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码注释</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工信息查询</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询员工工资</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工信息显示已完成，第二部操作</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">建立数据库，并且把登录完成   </t>
+    <t>2019/6/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/6/</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/6/</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/6/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1228,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,7 +1287,7 @@
         <v>43641</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="8">
         <v>43643</v>
@@ -1377,227 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8">
-        <v>43640</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43640</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>43640</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14">
-        <v>43640</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
-        <v>43641</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8">
-        <v>43642</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8">
-        <v>43643</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="14">
-        <v>43644</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1447,7 @@
         <v>43640</v>
       </c>
       <c r="D3" s="8">
-        <v>43640</v>
+        <v>43643</v>
       </c>
       <c r="E3" s="8">
         <v>43640</v>
@@ -1672,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -1813,12 +1597,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1892,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -1906,14 +1690,10 @@
       <c r="C4" s="8">
         <v>43640</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43641</v>
-      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -1954,6 +1734,238 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9">
         <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43642</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43643</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43643</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43644</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43640</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43640</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43640</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43640</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43642</v>
+      </c>
+      <c r="E4" s="8">
+        <v>43641</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43640</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14">
+        <v>43641</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43643</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.25</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -2116,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -2180,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,13 +2203,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8">
         <v>43642</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8">
         <v>43643</v>
@@ -2206,16 +2218,16 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8">
         <v>43640</v>
@@ -2226,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2269,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="14">
         <v>43644</v>
@@ -2290,7 +2302,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2364,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -2419,13 +2431,13 @@
         <v>43641</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8">
         <v>43643</v>
       </c>
       <c r="F6" s="9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>

--- a/陈绍基/编码进度表——陈绍基组.xlsx
+++ b/陈绍基/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="47">
   <si>
     <t>整体模块</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>2019/6/</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息显示</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -1158,7 +1170,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,13 +1278,17 @@
       <c r="C5" s="14">
         <v>43640</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>43644</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43647</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -1281,7 +1297,7 @@
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14">
         <v>43641</v>
@@ -1290,10 +1306,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="8">
-        <v>43643</v>
+        <v>43647</v>
       </c>
       <c r="F6" s="9">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -1381,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1447,10 +1463,10 @@
         <v>43640</v>
       </c>
       <c r="D3" s="8">
+        <v>43642</v>
+      </c>
+      <c r="E3" s="8">
         <v>43643</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43640</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -1490,13 +1506,17 @@
       <c r="C5" s="14">
         <v>43640</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>43644</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43647</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -1602,7 +1622,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1710,13 +1730,17 @@
       <c r="C5" s="14">
         <v>43640</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>43642</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43647</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -1730,13 +1754,17 @@
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8">
+        <v>43642</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43647</v>
+      </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>24</v>
@@ -1756,10 +1784,10 @@
         <v>42</v>
       </c>
       <c r="E7" s="8">
-        <v>43643</v>
+        <v>43647</v>
       </c>
       <c r="F7" s="9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -1825,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2082,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2162,13 +2190,17 @@
       <c r="C5" s="14">
         <v>43640</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>43644</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43647</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -2212,10 +2244,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="8">
-        <v>43643</v>
+        <v>43647</v>
       </c>
       <c r="F7" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>38</v>

--- a/陈绍基/编码进度表——陈绍基组.xlsx
+++ b/陈绍基/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="47">
   <si>
     <t>整体模块</t>
   </si>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>2019/6/</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>员工信息显示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -1297,22 +1297,22 @@
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
+      <c r="D6" s="8">
+        <v>43647</v>
       </c>
       <c r="E6" s="8">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F6" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>24</v>
@@ -1328,10 +1328,14 @@
       <c r="C7" s="8">
         <v>43642</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8">
+        <v>43647</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43648</v>
+      </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -1781,13 +1785,13 @@
         <v>43642</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8">
         <v>43647</v>
       </c>
       <c r="F7" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -1853,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1943,16 +1947,16 @@
         <v>43640</v>
       </c>
       <c r="D4" s="8">
+        <v>43641</v>
+      </c>
+      <c r="E4" s="8">
         <v>43642</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43641</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>17</v>
@@ -1966,13 +1970,17 @@
       <c r="C5" s="14">
         <v>43640</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>43642</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43643</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -1987,7 +1995,7 @@
         <v>43641</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="8">
         <v>43643</v>
@@ -2082,7 +2090,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -2244,10 +2252,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="8">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F7" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>38</v>
@@ -2333,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2442,13 +2450,17 @@
       <c r="C5" s="14">
         <v>43640</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8">
+        <v>43644</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43644</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>18</v>
@@ -2462,17 +2474,17 @@
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
+      <c r="D6" s="8">
+        <v>43647</v>
       </c>
       <c r="E6" s="8">
-        <v>43643</v>
+        <v>43648</v>
       </c>
       <c r="F6" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>24</v>
@@ -2488,10 +2500,14 @@
       <c r="C7" s="8">
         <v>43642</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8">
+        <v>43647</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43648</v>
+      </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>

--- a/陈绍基/编码进度表——陈绍基组.xlsx
+++ b/陈绍基/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="49">
   <si>
     <t>整体模块</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在往里面塞代码具体完成多少未知</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1169,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1343,7 @@
         <v>43648</v>
       </c>
       <c r="F7" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -1402,7 +1410,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1534,10 +1542,14 @@
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43649</v>
+      </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -1791,7 +1803,7 @@
         <v>43647</v>
       </c>
       <c r="F7" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -1858,7 +1870,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2020,13 +2032,17 @@
       <c r="C7" s="8">
         <v>43642</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8">
+        <v>43617</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43649</v>
+      </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>25</v>
@@ -2090,7 +2106,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2255,7 +2271,7 @@
         <v>43648</v>
       </c>
       <c r="F7" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>38</v>
@@ -2341,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2523,7 @@
         <v>43648</v>
       </c>
       <c r="F7" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>

--- a/陈绍基/编码进度表——陈绍基组.xlsx
+++ b/陈绍基/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1340,7 +1340,7 @@
         <v>43647</v>
       </c>
       <c r="E7" s="8">
-        <v>43648</v>
+        <v>43650</v>
       </c>
       <c r="F7" s="9">
         <v>0.3</v>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1546,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="8">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F6" s="9">
         <v>0.3</v>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="8">
-        <v>43647</v>
+        <v>43650</v>
       </c>
       <c r="F7" s="9">
         <v>0.8</v>
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2036,7 +2036,7 @@
         <v>43617</v>
       </c>
       <c r="E7" s="8">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -2106,7 +2106,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2268,7 +2268,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="8">
-        <v>43648</v>
+        <v>43650</v>
       </c>
       <c r="F7" s="9">
         <v>0.8</v>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2520,7 +2520,7 @@
         <v>43647</v>
       </c>
       <c r="E7" s="8">
-        <v>43648</v>
+        <v>43650</v>
       </c>
       <c r="F7" s="9">
         <v>0.7</v>
